--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>C202</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>C202</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
         </is>
       </c>
     </row>
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>DS161</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C202</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS151 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>EC161</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>DS161</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -838,22 +838,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>C202</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -902,19 +902,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
@@ -922,7 +922,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS151 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>C202</t>
         </is>
       </c>
     </row>
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -568,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -600,27 +600,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS151 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS151 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,17 +642,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>C202</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA161</t>
         </is>
       </c>
     </row>
@@ -870,27 +870,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS151 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS151 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,26 +1023,31 @@
           <t>Instructor</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Introduction to Physics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1061,29 +1066,34 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Introduction to Programming</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1102,29 +1112,34 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Fundamentals of Computing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1143,142 +1158,162 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Computational Thinking</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Kannada Kali-Nali</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HS161</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>English Language</t>
+          <t>Leveraging IT for Better Life</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Introduction to Physics</t>
+          <t>Basics of Design</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1307,19 +1342,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Ravishankar, Vivekraj</t>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1334,33 +1374,38 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Vivekraj</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fundamentals of Computing</t>
+          <t>Introduction to C Programming</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1389,70 +1434,80 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Computational Thinking</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Chandrika Kamat</t>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kannada Kali-Nali</t>
+          <t>Introduction to Programming</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1471,29 +1526,34 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Anand B</t>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Leveraging IT for Better Life</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1512,38 +1572,43 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Basics of Design</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1553,111 +1618,126 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Sandesh Phalke</t>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Holistic Personality Development</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Animesh Roy</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Introduction to C Programming</t>
+          <t>Economics/IET</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Introduction to Physics</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1676,29 +1756,34 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Introduction to Programming</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1717,29 +1802,34 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Fundamentals of Computing</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1758,142 +1848,162 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Mallikarjun K</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Computational Thinking</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Chandrika Ka...</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Kannada Kali-Nali</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Animesh Roy</t>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Economics/IET</t>
+          <t>Leveraging IT for Better Life</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Introduction to Physics</t>
+          <t>Basics of Design</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1922,19 +2032,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Ravishankar</t>
+          <t>Sandesh Phalk...</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1949,33 +2064,38 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Vivekraj</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fundamentals of Computing</t>
+          <t>Introduction to C Programming</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2004,19 +2124,24 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Mallikarjun K</t>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Computational Thinking</t>
+          <t>Introduction to Physics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2031,33 +2156,38 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Chandrika Ka...</t>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kannada Kali-Nali</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2086,19 +2216,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Anand B</t>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Leveraging IT for Better Life</t>
+          <t>Fundamentals of Computing</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2127,19 +2262,24 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Basics of Design</t>
+          <t>Computational Thinking</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2154,33 +2294,38 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Sandesh Phalk...</t>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Holistic Personality Development</t>
+          <t>Kannada Kali-Nali</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2195,33 +2340,38 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1-0-0-0-1</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to C Programming</t>
+          <t>Leveraging IT for Better Life</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2250,29 +2400,34 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Basics of Design</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2291,70 +2446,80 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to Programming</t>
+          <t>Holistic Personality Development</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Introduction to C Programming</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2373,499 +2538,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Manjunath</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Introduction to Physics</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Ravishankar</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Vivekraj</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Fundamentals of Computing</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Mallikarjun Kande</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Computational Thinking</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Chandrika Kamat</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Kannada Kali-Nali</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Anand B</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Sandesh Phalke</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Holistic Personality Development</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Introduction to C Programming</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
           <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
@@ -3234,12 +2912,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3271,7 +2949,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3308,7 +2986,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,12 +519,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>CS151 (Elective)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -568,17 +568,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS151 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>C202</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS151 (Elective)</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS151 (Elective)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -838,22 +838,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS151 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>CS151 (Elective)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS151 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Branch_Info" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,17 +477,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>MA162</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC161</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>C202</t>
@@ -516,7 +519,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -565,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>MA161</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA162</t>
         </is>
       </c>
     </row>
@@ -634,17 +637,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -739,22 +742,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>DS161</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>C202</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -771,22 +774,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -840,22 +843,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -904,22 +907,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>C202</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -952,6 +955,3371 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Introduction to Programming</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Animesh Roy</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Mallikarjun K</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Chandrika Ka...</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Sandesh Phalk...</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Elective Course</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Session Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lecture 1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lecture 2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.5 hours</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1 hour</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common Slot)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ALL (Common for All Branches)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Semester 1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Introduction to Programming</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Animesh Roy</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Mallikarjun K</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Chandrika Ka...</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sandesh Phalk...</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Introduction to Physics</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Introduction to C Programming</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -469,22 +469,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,22 +501,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -565,27 +565,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>C202</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -739,22 +739,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -771,22 +771,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>C202</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC161</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -899,27 +899,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -59,7 +59,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill/>
     </fill>
@@ -122,14 +122,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00b584e0"/>
-        <bgColor rgb="00b584e0"/>
+        <fgColor rgb="00FF6B6B"/>
+        <bgColor rgb="00FF6B6B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00F2F2F2"/>
         <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00b584e0"/>
+        <bgColor rgb="00b584e0"/>
       </patternFill>
     </fill>
     <fill>
@@ -231,18 +237,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -330,6 +336,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1208,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,7 +1230,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1255,6 +1265,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -1287,6 +1298,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1296,16 +1308,7 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-CS151 [C205]
-HS157 [C302]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]
-HS156 [C102]
-HS152 [C104]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
@@ -1315,16 +1318,7 @@
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-CS151 [C205]
-HS157 [C302]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]
-HS156 [C102]
-HS152 [C104]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
@@ -1337,6 +1331,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1369,6 +1364,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1401,6 +1397,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1420,7 +1417,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -1433,6 +1430,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1452,7 +1450,7 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -1462,18 +1460,10 @@
       </c>
       <c r="F7" s="9" t="inlineStr">
         <is>
-          <t>PH151 (Tutorial) [C202]
-DS151 (Tutorial) [C203]
-CS101 (Tutorial) [C204]
-CS151 (Tutorial) [C205]
-HS157 (Tutorial) [C302]
-HS102 (Tutorial) [C303]
-HS103 (Tutorial) [C304]
-DE101 (Tutorial) [C305]
-HS156 (Tutorial) [C102]
-HS152 (Tutorial) [C104]</t>
-        </is>
-      </c>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1506,6 +1496,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1538,6 +1529,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1570,6 +1562,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -1578,6 +1571,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -1586,6 +1580,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -1598,6 +1593,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -1610,6 +1606,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -1632,8 +1629,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
@@ -1656,8 +1666,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="inlineStr">
@@ -1680,8 +1703,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="inlineStr">
@@ -1704,8 +1740,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -1728,8 +1777,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="inlineStr">
@@ -1752,8 +1814,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
@@ -1762,6 +1837,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -1774,6 +1850,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -1806,6 +1883,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -1818,14 +1896,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr">
+      <c r="C24" s="25" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -1838,6 +1916,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1850,14 +1929,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C25" s="25" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1870,6 +1949,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -1882,14 +1962,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C26" s="26" t="inlineStr">
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -1902,6 +1982,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -1914,14 +1995,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C27" s="27" t="inlineStr">
+      <c r="C27" s="28" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -1934,6 +2015,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -1946,14 +2028,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C28" s="28" t="inlineStr">
+      <c r="C28" s="29" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -1966,6 +2048,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -1978,14 +2061,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C29" s="29" t="inlineStr">
+      <c r="C29" s="30" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -1998,6 +2081,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2010,14 +2094,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C30" s="30" t="inlineStr">
+      <c r="C30" s="31" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2030,6 +2114,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2042,14 +2127,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C31" s="31" t="inlineStr">
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2062,6 +2147,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -2074,14 +2160,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C32" s="32" t="inlineStr">
+      <c r="C32" s="33" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2094,6 +2180,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -2106,14 +2193,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C33" s="33" t="inlineStr">
+      <c r="C33" s="34" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -2126,10 +2213,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -2143,7 +2231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2156,7 +2244,8 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2190,6 +2279,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2222,6 +2312,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2229,18 +2320,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="33" t="inlineStr">
-        <is>
-          <t>HS152 [C104]
-HS157 [C302]
-HS156 [C102]
-PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]
-CS151 [C205]</t>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -2248,18 +2330,9 @@
           <t>CS161 [C202]</t>
         </is>
       </c>
-      <c r="D3" s="33" t="inlineStr">
-        <is>
-          <t>HS152 [C104]
-HS157 [C302]
-HS156 [C102]
-PH151 [C202]
-DS151 [C203]
-CS101 [C204]
-HS102 [C303]
-HS103 [C304]
-DE101 [C305]
-CS151 [C205]</t>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2272,6 +2345,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2304,6 +2378,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2336,6 +2411,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2368,6 +2444,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2395,20 +2472,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="33" t="inlineStr">
-        <is>
-          <t>HS152 (Tutorial) [C104]
-HS157 (Tutorial) [C302]
-HS156 (Tutorial) [C102]
-PH151 (Tutorial) [C202]
-DS151 (Tutorial) [C203]
-CS101 (Tutorial) [C204]
-HS102 (Tutorial) [C303]
-HS103 (Tutorial) [C304]
-DE101 (Tutorial) [C305]
-CS151 (Tutorial) [C205]</t>
-        </is>
-      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2423,7 +2492,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -2441,6 +2510,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2455,7 +2525,7 @@
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2473,6 +2543,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2505,6 +2576,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -2513,6 +2585,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2521,6 +2594,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -2533,6 +2607,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -2545,6 +2620,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -2567,8 +2643,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
@@ -2591,8 +2680,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="inlineStr">
@@ -2615,8 +2717,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="inlineStr">
@@ -2639,8 +2754,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -2663,8 +2791,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="inlineStr">
@@ -2687,8 +2828,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
@@ -2697,6 +2851,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -2709,6 +2864,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -2741,6 +2897,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -2753,14 +2910,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr">
+      <c r="C24" s="25" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2773,6 +2930,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2785,14 +2943,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C25" s="25" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2805,6 +2963,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -2817,14 +2976,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C26" s="26" t="inlineStr">
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2837,6 +2996,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2849,14 +3009,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C27" s="27" t="inlineStr">
+      <c r="C27" s="28" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2869,6 +3029,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2881,14 +3042,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C28" s="28" t="inlineStr">
+      <c r="C28" s="29" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2901,6 +3062,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2913,14 +3075,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C29" s="29" t="inlineStr">
+      <c r="C29" s="30" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2933,6 +3095,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2945,14 +3108,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C30" s="30" t="inlineStr">
+      <c r="C30" s="31" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2965,6 +3128,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2977,14 +3141,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C31" s="31" t="inlineStr">
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2997,6 +3161,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3009,14 +3174,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C32" s="32" t="inlineStr">
+      <c r="C32" s="33" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3029,6 +3194,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -3041,14 +3207,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C33" s="33" t="inlineStr">
+      <c r="C33" s="34" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3061,10 +3227,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
@@ -3078,7 +3245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3091,7 +3258,8 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3125,6 +3293,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3157,6 +3326,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3164,11 +3334,9 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="33" t="inlineStr">
-        <is>
-          <t>HS152 [C104]
-HS157 [C302]
-HS156 [C102]</t>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -3176,11 +3344,9 @@
           <t>CS161 [C101]</t>
         </is>
       </c>
-      <c r="D3" s="33" t="inlineStr">
-        <is>
-          <t>HS152 [C104]
-HS157 [C302]
-HS156 [C102]</t>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3193,6 +3359,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3225,6 +3392,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3257,6 +3425,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3266,7 +3435,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr">
@@ -3289,6 +3458,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3298,7 +3468,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3316,13 +3486,12 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="33" t="inlineStr">
-        <is>
-          <t>HS152 (Tutorial) [C104]
-HS157 (Tutorial) [C302]
-HS156 (Tutorial) [C102]</t>
-        </is>
-      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3355,6 +3524,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3387,6 +3557,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3419,6 +3590,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -3427,6 +3599,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -3435,6 +3608,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -3447,6 +3621,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -3459,6 +3634,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -3481,8 +3657,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="19" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="19" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="inlineStr">
@@ -3505,8 +3694,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="inlineStr">
@@ -3529,8 +3731,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="22" t="inlineStr">
@@ -3553,8 +3768,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="inlineStr">
@@ -3577,8 +3805,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="inlineStr">
@@ -3601,8 +3842,21 @@
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
@@ -3611,6 +3865,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -3623,6 +3878,7 @@
       <c r="D22" s="8" t="n"/>
       <c r="E22" s="8" t="n"/>
       <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -3655,6 +3911,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -3667,14 +3924,14 @@
           <t>Introduction to quantam Physics</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr">
+      <c r="C24" s="25" t="inlineStr">
         <is>
           <t>PH151</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -3687,6 +3944,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -3699,14 +3957,14 @@
           <t>Linux for Engineers</t>
         </is>
       </c>
-      <c r="C25" s="25" t="inlineStr">
+      <c r="C25" s="26" t="inlineStr">
         <is>
           <t>DS151</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3719,6 +3977,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3731,14 +3990,14 @@
           <t>Fundamentals of Computing</t>
         </is>
       </c>
-      <c r="C26" s="26" t="inlineStr">
+      <c r="C26" s="27" t="inlineStr">
         <is>
           <t>CS101</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3751,6 +4010,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3763,14 +4023,14 @@
           <t>introduction to cyber security</t>
         </is>
       </c>
-      <c r="C27" s="27" t="inlineStr">
+      <c r="C27" s="28" t="inlineStr">
         <is>
           <t>CS151</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3783,6 +4043,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3795,14 +4056,14 @@
           <t>Computational musicology for hindustani music</t>
         </is>
       </c>
-      <c r="C28" s="28" t="inlineStr">
+      <c r="C28" s="29" t="inlineStr">
         <is>
           <t>HS157</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3815,6 +4076,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3827,14 +4089,14 @@
           <t>Kannada Kali-Nali</t>
         </is>
       </c>
-      <c r="C29" s="29" t="inlineStr">
+      <c r="C29" s="30" t="inlineStr">
         <is>
           <t>HS102</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3847,6 +4109,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3859,14 +4122,14 @@
           <t>Leveraging IT for Better Life</t>
         </is>
       </c>
-      <c r="C30" s="30" t="inlineStr">
+      <c r="C30" s="31" t="inlineStr">
         <is>
           <t>HS103</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3879,6 +4142,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3891,14 +4155,14 @@
           <t>Basics of Design</t>
         </is>
       </c>
-      <c r="C31" s="31" t="inlineStr">
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>DE101</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3911,6 +4175,7 @@
           <t>2-0-0-0-2</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3923,14 +4188,14 @@
           <t>Holistic Personality Development</t>
         </is>
       </c>
-      <c r="C32" s="32" t="inlineStr">
+      <c r="C32" s="33" t="inlineStr">
         <is>
           <t>HS156</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3943,6 +4208,7 @@
           <t>1-0-0-0-1</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -3955,14 +4221,14 @@
           <t>Economics/IET</t>
         </is>
       </c>
-      <c r="C33" s="33" t="inlineStr">
+      <c r="C33" s="34" t="inlineStr">
         <is>
           <t>HS152</t>
         </is>
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
@@ -3975,10 +4241,11 @@
           <t>3-0-0-0-3</t>
         </is>
       </c>
+      <c r="G33" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1341,17 +1341,17 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2068,12 +2068,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2134,12 +2134,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2167,12 +2167,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="C4" s="15" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L206]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2950,12 +2950,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3049,12 +3049,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3082,12 +3082,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3214,12 +3214,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3369,17 +3369,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3964,12 +3964,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3997,12 +3997,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4030,12 +4030,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4063,12 +4063,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4096,12 +4096,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L402], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4129,12 +4129,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L403], Wed 09:00-10:30 [L403]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4162,12 +4162,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L404], Wed 09:00-10:30 [L404]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4195,12 +4195,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
+          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Regular_Timetable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="PreMid_Timetable" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PostMid_Timetable" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Section_A" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Utilization" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classroom_Allocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Course_Allocations" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -205,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -233,11 +237,55 @@
         <color rgb="00CCCCCC"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -341,6 +389,8 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1313,7 +1363,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1323,7 +1373,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1341,12 +1391,12 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
@@ -1407,22 +1457,22 @@
       </c>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C002]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1450,12 +1500,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L106]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -1473,7 +1523,7 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C001]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -1483,7 +1533,7 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1588,10 +1638,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -1601,12 +1651,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -1845,11 +1895,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -2327,7 +2377,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2355,17 +2405,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C202]</t>
         </is>
       </c>
       <c r="C4" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C002]</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2421,12 +2471,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -2454,7 +2504,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2487,7 +2537,7 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C003]</t>
+          <t>MA162 [C002]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -2602,10 +2652,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -2615,12 +2665,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -2859,11 +2909,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -3341,7 +3391,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3369,17 +3419,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C101]</t>
         </is>
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3440,7 +3490,7 @@
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C003]</t>
+          <t>DS161 [C001]</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -3501,7 +3551,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C003]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -3616,10 +3666,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -3629,12 +3679,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -3873,11 +3923,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -4251,4 +4301,8767 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS161 [L402]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS161 [L402]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MA161 [C205]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L107]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DS161 [C001]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MA161 [C205]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Course Name [C004]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C004]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Term Type [C004]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lectures Hrs [C004]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Problem Solving [C102]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4 [C102]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Full Sem [C102]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3/3 [C102]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0/0 [C102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance [C102]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C102]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only [C102]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2/2 [C102]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0/0 [C102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Digital Design [C102]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2 [C102]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Post-Mid Only [C102]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3/3 [C102]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0/0 [C102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Statistics [C102]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C102]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only [C102]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2/2 [C102]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0/0 [C102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Probability [C102]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C102]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Post-Mid Only [C102]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2/2 [C102]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0/0 [C102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Course [C004]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Course Code [C004]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom [C004]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom [C004]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics [C004]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PH151 [C004]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C004]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004, C101, C203</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C102, C204</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C104, C205</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C202, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C203, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C204, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C205, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C001, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C002, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C003, C304</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -756,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,7 +768,8 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -808,6 +809,11 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -835,6 +841,11 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
           <t>CS161 (3-0-2-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -862,6 +873,11 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
           <t>DS161 (2-0-0-0-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -889,6 +905,11 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>EC161 (3-0-2-0-2 | Post-Mid Only)</t>
         </is>
       </c>
@@ -916,6 +937,11 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
           <t>MA161 (2-0-0-0-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -943,6 +969,11 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
           <t>MA162 (2-0-0-0-2 | Post-Mid Only)</t>
         </is>
       </c>
@@ -977,6 +1008,11 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -1004,6 +1040,11 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
           <t>CS101 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1031,6 +1072,11 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
           <t>CS151 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1058,6 +1104,11 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
           <t>DE101 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1085,6 +1136,11 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
           <t>DS151 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1112,6 +1168,11 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
           <t>HS102 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1139,6 +1200,11 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
           <t>HS103 (2-0-0-0-2)</t>
         </is>
       </c>
@@ -1166,6 +1232,11 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
           <t>HS152 (3-0-0-0-3)</t>
         </is>
       </c>
@@ -1193,6 +1264,11 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
           <t>HS156 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1220,6 +1296,11 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
           <t>HS157 (1-0-0-0-1)</t>
         </is>
       </c>
@@ -1247,15 +1328,20 @@
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
+          <t>Ravishankar, Vivekraj</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
           <t>PH151 (2-0-0-0-2)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1363,7 +1449,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1373,7 +1459,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1391,12 +1477,12 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
@@ -1457,22 +1543,22 @@
       </c>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1500,12 +1586,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>EC161 (Lab) [C004]</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -1523,7 +1609,7 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -1533,7 +1619,7 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C203]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2377,7 +2463,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C203]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2405,17 +2491,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C202]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="C4" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2471,12 +2557,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>EC161 [C002]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -2504,7 +2590,7 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2537,7 +2623,7 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -3391,7 +3477,7 @@
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C102]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3419,17 +3505,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C101]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="C4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3490,7 +3576,7 @@
       </c>
       <c r="C6" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -3551,7 +3637,7 @@
       </c>
       <c r="B8" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -4394,7 +4480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [L402]</t>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4421,12 +4507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [L402]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA161 [C205]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4485,7 +4571,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4517,7 +4603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4549,7 +4635,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA161 [C205]</t>
+          <t>MA161 [C001]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4693,27 +4779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C004]</t>
+          <t>Course Name [C102]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [C102]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C004]</t>
+          <t>Term Type [C102]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C004]</t>
+          <t>Lectures Hrs [C102]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C004]</t>
+          <t>Tutorials Hrs [C102]</t>
         </is>
       </c>
     </row>
@@ -4909,27 +4995,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Course [C004]</t>
+          <t>Course [C102]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Course Code [C004]</t>
+          <t>Course Code [C102]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C004]</t>
+          <t>Lecture Slot - Classroom [C102]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C004]</t>
+          <t>Tutorial Slot - Classroom [C102]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C [C102]</t>
         </is>
       </c>
     </row>
@@ -5331,10 +5417,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5429,10 +5515,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>91.5</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>18.3</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5497,10 +5583,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37.5</v>
+        <v>52.5</v>
       </c>
       <c r="E7" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5667,10 +5753,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5803,10 +5889,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5837,10 +5923,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5905,10 +5991,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6293,10 +6379,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6651,7 +6737,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6670,7 +6756,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6742,7 +6828,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6790,21 +6876,21 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6814,7 +6900,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -6828,7 +6914,7 @@
         </is>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6862,19 +6948,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -6886,7 +6968,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -6934,21 +7016,21 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -6958,7 +7040,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -6972,7 +7054,7 @@
         </is>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7366,21 +7448,21 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -7390,7 +7472,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -7404,7 +7486,7 @@
         </is>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7443,7 +7525,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -7462,7 +7544,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -7510,19 +7592,15 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -7534,7 +7612,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -7650,21 +7728,21 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -7674,7 +7752,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -7688,7 +7766,7 @@
         </is>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -8082,21 +8160,21 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -8106,7 +8184,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -8120,7 +8198,7 @@
         </is>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -8222,21 +8300,21 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -8246,7 +8324,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8260,7 +8338,7 @@
         </is>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8654,21 +8732,21 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -8678,7 +8756,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -8692,7 +8770,7 @@
         </is>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -8726,21 +8804,21 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -8750,7 +8828,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -8764,7 +8842,7 @@
         </is>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -9158,21 +9236,21 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -9182,7 +9260,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -9196,7 +9274,7 @@
         </is>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -9230,21 +9308,21 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -9254,7 +9332,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -9268,7 +9346,7 @@
         </is>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -9662,21 +9740,21 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -9686,7 +9764,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -9700,7 +9778,7 @@
         </is>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -9744,7 +9822,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9762,7 +9840,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -9820,7 +9898,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9838,7 +9916,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -9896,7 +9974,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -9914,7 +9992,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -9990,7 +10068,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -10066,7 +10144,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -10142,7 +10220,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -10218,7 +10296,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -10266,15 +10344,19 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -10290,7 +10372,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -10338,17 +10420,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10366,7 +10448,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -10414,17 +10496,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10442,7 +10524,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -10480,27 +10562,31 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -10510,17 +10596,17 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -10539,36 +10625,36 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -10578,17 +10664,17 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10612,31 +10698,31 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -10646,17 +10732,17 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -10675,12 +10761,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -10690,31 +10776,35 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -10722,9 +10812,13 @@
           <t>PH151</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10753,7 +10847,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10786,12 +10880,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10829,7 +10923,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10862,12 +10956,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10905,7 +10999,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10938,12 +11032,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10981,7 +11075,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10996,7 +11090,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -11014,12 +11108,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -11057,7 +11151,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11090,12 +11184,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -11133,7 +11227,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11166,12 +11260,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -11209,7 +11303,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11224,7 +11318,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11242,12 +11336,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11285,7 +11379,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11300,7 +11394,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11318,12 +11412,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -11361,7 +11455,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11394,12 +11488,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -11432,59 +11526,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -11532,7 +11618,7 @@
         </is>
       </c>
       <c r="J69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -11552,7 +11638,7 @@
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11596,7 +11682,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -11610,7 +11696,7 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -11746,7 +11832,7 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -11814,7 +11900,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -11882,7 +11968,7 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -12004,7 +12090,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12022,7 +12108,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -12080,7 +12166,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -12098,7 +12184,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -12156,7 +12242,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -12174,7 +12260,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -12250,7 +12336,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -12326,7 +12412,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -12402,7 +12488,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -12478,7 +12564,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -12526,15 +12612,19 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
@@ -12550,7 +12640,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -12598,17 +12688,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -12626,7 +12716,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -12674,17 +12764,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12702,7 +12792,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -12904,7 +12994,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101, C203</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -12921,7 +13011,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -12938,7 +13028,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, C205</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -12955,7 +13045,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202, C302</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -12972,7 +13062,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C203, C303</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -12989,7 +13079,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204, C304</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -13006,7 +13096,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205, C305</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -13023,7 +13113,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C302</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -13040,7 +13130,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C303</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -13057,7 +13147,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C003, C304</t>
+          <t>C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -308,28 +308,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -969,7 +969,7 @@
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Chimayananda A</t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Sandesh Phalke</t>
+          <t>Sandesh P</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Anand B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Anushree</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
@@ -1411,30 +1411,30 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
+          <t>CS161 [C204]</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G2" s="8" t="n"/>
+      <c r="G2" s="9" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1442,32 +1442,32 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>DS161 [L403]</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C204]</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="E3" s="12" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G3" s="8" t="n"/>
+      <c r="G3" s="9" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1475,32 +1475,32 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C003]</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>DS161 [L403]</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="inlineStr">
+        <is>
+          <t>MA161 [L404]</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>CS161 [C305]</t>
+        </is>
+      </c>
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>EC161 [C003]</t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="n"/>
+      <c r="G4" s="9" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1508,32 +1508,32 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="G5" s="8" t="n"/>
+      <c r="G5" s="9" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1541,32 +1541,32 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C003]</t>
-        </is>
-      </c>
-      <c r="C6" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C003]</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C003]</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G6" s="8" t="n"/>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L107]</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G6" s="9" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1574,32 +1574,32 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L107]</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="inlineStr">
         <is>
           <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
-      <c r="G7" s="8" t="n"/>
+      <c r="G7" s="9" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1607,32 +1607,32 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C003]</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C003]</t>
-        </is>
-      </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C204]</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>MA161 [L404]</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G8" s="8" t="n"/>
+      <c r="F8" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1640,32 +1640,32 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="n"/>
+      <c r="F9" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1673,50 +1673,50 @@
           <t>18:30-20:00</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G10" s="8" t="n"/>
+      <c r="G10" s="9" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="8" t="n"/>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
-      <c r="G12" s="8" t="n"/>
+      <c r="B12" s="9" t="n"/>
+      <c r="C12" s="9" t="n"/>
+      <c r="D12" s="9" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="9" t="n"/>
+      <c r="G12" s="9" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -1728,8 +1728,8 @@
       <c r="C13" s="35" t="n"/>
       <c r="D13" s="35" t="n"/>
       <c r="E13" s="36" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -1787,32 +1787,32 @@
           <t>CS161</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>Problem Solving</t>
         </is>
       </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>3-0-2-0-4</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>3/3</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G16" s="8" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
@@ -1824,32 +1824,32 @@
           <t>DS161</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B17" s="9" t="inlineStr">
         <is>
           <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="inlineStr">
+      <c r="E17" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="F17" s="8" t="inlineStr">
+      <c r="F17" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
+      <c r="G17" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
@@ -1861,32 +1861,32 @@
           <t>EC161</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B18" s="9" t="inlineStr">
         <is>
           <t>Digital Design</t>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>3-0-2-0-2</t>
         </is>
       </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="D18" s="9" t="inlineStr">
         <is>
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="inlineStr">
+      <c r="E18" s="9" t="inlineStr">
         <is>
           <t>3/3</t>
         </is>
       </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
@@ -1898,32 +1898,32 @@
           <t>MA161</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B19" s="9" t="inlineStr">
         <is>
           <t>Statistics</t>
         </is>
       </c>
-      <c r="C19" s="8" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="D19" s="8" t="inlineStr">
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="inlineStr">
+      <c r="E19" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="F19" s="8" t="inlineStr">
+      <c r="F19" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G19" s="8" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
@@ -1935,32 +1935,32 @@
           <t>MA162</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
         <is>
           <t>Probability</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D20" s="9" t="inlineStr">
         <is>
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr">
+      <c r="E20" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
@@ -1968,12 +1968,12 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
-      <c r="G21" s="8" t="n"/>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -1986,7 +1986,7 @@
       <c r="D22" s="35" t="n"/>
       <c r="E22" s="35" t="n"/>
       <c r="F22" s="36" t="n"/>
-      <c r="G22" s="8" t="n"/>
+      <c r="G22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -2019,7 +2019,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
-      <c r="G23" s="8" t="n"/>
+      <c r="G23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -2027,7 +2027,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>Introduction to quantam Physics</t>
         </is>
@@ -2037,22 +2037,22 @@
           <t>PH151</t>
         </is>
       </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C101]</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L402]</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G24" s="8" t="n"/>
+      <c r="G24" s="9" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2060,7 +2060,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B25" s="9" t="inlineStr">
         <is>
           <t>Linux for Engineers</t>
         </is>
@@ -2070,22 +2070,22 @@
           <t>DS151</t>
         </is>
       </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C102]</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="inlineStr">
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L403]</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G25" s="8" t="n"/>
+      <c r="G25" s="9" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -2093,7 +2093,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
         <is>
           <t>Fundamentals of Computing</t>
         </is>
@@ -2103,22 +2103,22 @@
           <t>CS101</t>
         </is>
       </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C104]</t>
-        </is>
-      </c>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L404]</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G26" s="8" t="n"/>
+      <c r="G26" s="9" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2126,7 +2126,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B27" s="9" t="inlineStr">
         <is>
           <t>introduction to cyber security</t>
         </is>
@@ -2136,22 +2136,22 @@
           <t>CS151</t>
         </is>
       </c>
-      <c r="D27" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C202]</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="inlineStr">
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E27" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L405]</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G27" s="8" t="n"/>
+      <c r="G27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2159,7 +2159,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B28" s="9" t="inlineStr">
         <is>
           <t>Computational musicology for hindustani music</t>
         </is>
@@ -2169,22 +2169,22 @@
           <t>HS157</t>
         </is>
       </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C203]</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L406]</t>
+        </is>
+      </c>
+      <c r="F28" s="9" t="inlineStr">
         <is>
           <t>1-0-0-0-1</t>
         </is>
       </c>
-      <c r="G28" s="8" t="n"/>
+      <c r="G28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2192,7 +2192,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B29" s="9" t="inlineStr">
         <is>
           <t>Kannada Kali-Nali</t>
         </is>
@@ -2202,22 +2202,22 @@
           <t>HS102</t>
         </is>
       </c>
-      <c r="D29" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C204]</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="inlineStr">
+      <c r="D29" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E29" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L407]</t>
+        </is>
+      </c>
+      <c r="F29" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G29" s="8" t="n"/>
+      <c r="G29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2225,7 +2225,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B30" s="9" t="inlineStr">
         <is>
           <t>Leveraging IT for Better Life</t>
         </is>
@@ -2235,22 +2235,22 @@
           <t>HS103</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C205]</t>
-        </is>
-      </c>
-      <c r="F30" s="8" t="inlineStr">
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L408]</t>
+        </is>
+      </c>
+      <c r="F30" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G30" s="8" t="n"/>
+      <c r="G30" s="9" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2258,7 +2258,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B31" s="9" t="inlineStr">
         <is>
           <t>Basics of Design</t>
         </is>
@@ -2268,22 +2268,22 @@
           <t>DE101</t>
         </is>
       </c>
-      <c r="D31" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C302]</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G31" s="8" t="n"/>
+      <c r="G31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -2291,7 +2291,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
         <is>
           <t>Holistic Personality Development</t>
         </is>
@@ -2301,22 +2301,22 @@
           <t>HS156</t>
         </is>
       </c>
-      <c r="D32" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
-        </is>
-      </c>
-      <c r="E32" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C303]</t>
-        </is>
-      </c>
-      <c r="F32" s="8" t="inlineStr">
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
         <is>
           <t>1-0-0-0-1</t>
         </is>
       </c>
-      <c r="G32" s="8" t="n"/>
+      <c r="G32" s="9" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -2324,7 +2324,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B33" s="9" t="inlineStr">
         <is>
           <t>Economics/IET</t>
         </is>
@@ -2334,22 +2334,22 @@
           <t>HS152</t>
         </is>
       </c>
-      <c r="D33" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C304]</t>
-        </is>
-      </c>
-      <c r="F33" s="8" t="inlineStr">
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
         <is>
           <t>3-0-0-0-3</t>
         </is>
       </c>
-      <c r="G33" s="8" t="n"/>
+      <c r="G33" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2423,32 +2423,32 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>CS161 [C204]</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G2" s="8" t="n"/>
+      <c r="G2" s="9" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2456,32 +2456,32 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C203]</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G3" s="8" t="n"/>
+      <c r="G3" s="9" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2489,32 +2489,32 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C204]</t>
-        </is>
-      </c>
-      <c r="C4" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C003]</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>EC161 [C003]</t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G4" s="8" t="n"/>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2522,32 +2522,32 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="G5" s="8" t="n"/>
+      <c r="G5" s="9" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2555,32 +2555,32 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C003]</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G6" s="8" t="n"/>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G6" s="9" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2588,32 +2588,32 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="F7" s="10" t="inlineStr">
         <is>
           <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
-      <c r="G7" s="8" t="n"/>
+      <c r="G7" s="9" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2621,32 +2621,32 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C003]</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C003]</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G8" s="8" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2654,32 +2654,32 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="n"/>
+      <c r="G9" s="9" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2689,48 +2689,48 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
+          <t>CS161 [C204]</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L107]</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="n"/>
+      <c r="G10" s="9" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="8" t="n"/>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
-      <c r="G12" s="8" t="n"/>
+      <c r="B12" s="9" t="n"/>
+      <c r="C12" s="9" t="n"/>
+      <c r="D12" s="9" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="9" t="n"/>
+      <c r="G12" s="9" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -2742,8 +2742,8 @@
       <c r="C13" s="35" t="n"/>
       <c r="D13" s="35" t="n"/>
       <c r="E13" s="36" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -2801,32 +2801,32 @@
           <t>CS161</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>Problem Solving</t>
         </is>
       </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>3-0-2-0-4</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>3/3</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G16" s="8" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
@@ -2838,32 +2838,32 @@
           <t>DS161</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B17" s="9" t="inlineStr">
         <is>
           <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="inlineStr">
+      <c r="E17" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="F17" s="8" t="inlineStr">
+      <c r="F17" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
+      <c r="G17" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
@@ -2875,32 +2875,32 @@
           <t>EC161</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B18" s="9" t="inlineStr">
         <is>
           <t>Digital Design</t>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>3-0-2-0-2</t>
         </is>
       </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="D18" s="9" t="inlineStr">
         <is>
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="inlineStr">
+      <c r="E18" s="9" t="inlineStr">
         <is>
           <t>3/3</t>
         </is>
       </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
@@ -2912,32 +2912,32 @@
           <t>MA161</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B19" s="9" t="inlineStr">
         <is>
           <t>Statistics</t>
         </is>
       </c>
-      <c r="C19" s="8" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="D19" s="8" t="inlineStr">
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="inlineStr">
+      <c r="E19" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="F19" s="8" t="inlineStr">
+      <c r="F19" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G19" s="8" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
@@ -2949,32 +2949,32 @@
           <t>MA162</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
         <is>
           <t>Probability</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D20" s="9" t="inlineStr">
         <is>
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr">
+      <c r="E20" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
@@ -2982,12 +2982,12 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
-      <c r="G21" s="8" t="n"/>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -3000,7 +3000,7 @@
       <c r="D22" s="35" t="n"/>
       <c r="E22" s="35" t="n"/>
       <c r="F22" s="36" t="n"/>
-      <c r="G22" s="8" t="n"/>
+      <c r="G22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -3033,7 +3033,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
-      <c r="G23" s="8" t="n"/>
+      <c r="G23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -3041,7 +3041,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>Introduction to quantam Physics</t>
         </is>
@@ -3051,22 +3051,22 @@
           <t>PH151</t>
         </is>
       </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C101]</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L402]</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G24" s="8" t="n"/>
+      <c r="G24" s="9" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -3074,7 +3074,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B25" s="9" t="inlineStr">
         <is>
           <t>Linux for Engineers</t>
         </is>
@@ -3084,22 +3084,22 @@
           <t>DS151</t>
         </is>
       </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C102]</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="inlineStr">
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L403]</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G25" s="8" t="n"/>
+      <c r="G25" s="9" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3107,7 +3107,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
         <is>
           <t>Fundamentals of Computing</t>
         </is>
@@ -3117,22 +3117,22 @@
           <t>CS101</t>
         </is>
       </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C104]</t>
-        </is>
-      </c>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L404]</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G26" s="8" t="n"/>
+      <c r="G26" s="9" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3140,7 +3140,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B27" s="9" t="inlineStr">
         <is>
           <t>introduction to cyber security</t>
         </is>
@@ -3150,22 +3150,22 @@
           <t>CS151</t>
         </is>
       </c>
-      <c r="D27" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C202]</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="inlineStr">
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E27" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L405]</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G27" s="8" t="n"/>
+      <c r="G27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3173,7 +3173,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B28" s="9" t="inlineStr">
         <is>
           <t>Computational musicology for hindustani music</t>
         </is>
@@ -3183,22 +3183,22 @@
           <t>HS157</t>
         </is>
       </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C203]</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L406]</t>
+        </is>
+      </c>
+      <c r="F28" s="9" t="inlineStr">
         <is>
           <t>1-0-0-0-1</t>
         </is>
       </c>
-      <c r="G28" s="8" t="n"/>
+      <c r="G28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3206,7 +3206,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B29" s="9" t="inlineStr">
         <is>
           <t>Kannada Kali-Nali</t>
         </is>
@@ -3216,22 +3216,22 @@
           <t>HS102</t>
         </is>
       </c>
-      <c r="D29" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C204]</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="inlineStr">
+      <c r="D29" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E29" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L407]</t>
+        </is>
+      </c>
+      <c r="F29" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G29" s="8" t="n"/>
+      <c r="G29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3239,7 +3239,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B30" s="9" t="inlineStr">
         <is>
           <t>Leveraging IT for Better Life</t>
         </is>
@@ -3249,22 +3249,22 @@
           <t>HS103</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C205]</t>
-        </is>
-      </c>
-      <c r="F30" s="8" t="inlineStr">
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L408]</t>
+        </is>
+      </c>
+      <c r="F30" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G30" s="8" t="n"/>
+      <c r="G30" s="9" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3272,7 +3272,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B31" s="9" t="inlineStr">
         <is>
           <t>Basics of Design</t>
         </is>
@@ -3282,22 +3282,22 @@
           <t>DE101</t>
         </is>
       </c>
-      <c r="D31" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C302]</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G31" s="8" t="n"/>
+      <c r="G31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3305,7 +3305,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
         <is>
           <t>Holistic Personality Development</t>
         </is>
@@ -3315,22 +3315,22 @@
           <t>HS156</t>
         </is>
       </c>
-      <c r="D32" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
-        </is>
-      </c>
-      <c r="E32" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C303]</t>
-        </is>
-      </c>
-      <c r="F32" s="8" t="inlineStr">
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
         <is>
           <t>1-0-0-0-1</t>
         </is>
       </c>
-      <c r="G32" s="8" t="n"/>
+      <c r="G32" s="9" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -3338,7 +3338,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B33" s="9" t="inlineStr">
         <is>
           <t>Economics/IET</t>
         </is>
@@ -3348,22 +3348,22 @@
           <t>HS152</t>
         </is>
       </c>
-      <c r="D33" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C304]</t>
-        </is>
-      </c>
-      <c r="F33" s="8" t="inlineStr">
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
         <is>
           <t>3-0-0-0-3</t>
         </is>
       </c>
-      <c r="G33" s="8" t="n"/>
+      <c r="G33" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3437,32 +3437,32 @@
           <t>07:30-09:00</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>CS161 [C205]</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G2" s="8" t="n"/>
+      <c r="G2" s="9" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3470,32 +3470,32 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C204]</t>
-        </is>
-      </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G3" s="8" t="n"/>
+      <c r="G3" s="9" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3503,32 +3503,32 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C205]</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C003]</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>DS161 [L403]</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G4" s="8" t="n"/>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="G4" s="9" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3536,32 +3536,32 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="G5" s="8" t="n"/>
+      <c r="G5" s="9" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3569,32 +3569,32 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C003]</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>MA161 [L404]</t>
+        </is>
+      </c>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>MA161 [L404]</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G6" s="8" t="n"/>
+      <c r="G6" s="9" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3602,32 +3602,32 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F7" s="9" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" s="10" t="inlineStr">
         <is>
           <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
-      <c r="G7" s="8" t="n"/>
+      <c r="G7" s="9" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3635,32 +3635,32 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
+        <is>
+          <t>DS161 [L403]</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="F8" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="G8" s="8" t="n"/>
+      <c r="G8" s="9" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3668,32 +3668,32 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="n"/>
+      <c r="G9" s="9" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3703,48 +3703,48 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
+          <t>CS161 [C205]</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [C204]</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="n"/>
+      <c r="G10" s="9" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
-      <c r="B12" s="8" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="8" t="n"/>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
-      <c r="G12" s="8" t="n"/>
+      <c r="B12" s="9" t="n"/>
+      <c r="C12" s="9" t="n"/>
+      <c r="D12" s="9" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="9" t="n"/>
+      <c r="G12" s="9" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr">
@@ -3756,8 +3756,8 @@
       <c r="C13" s="35" t="n"/>
       <c r="D13" s="35" t="n"/>
       <c r="E13" s="36" t="n"/>
-      <c r="F13" s="8" t="n"/>
-      <c r="G13" s="8" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
@@ -3815,32 +3815,32 @@
           <t>CS161</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B16" s="9" t="inlineStr">
         <is>
           <t>Problem Solving</t>
         </is>
       </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="C16" s="9" t="inlineStr">
         <is>
           <t>3-0-2-0-4</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D16" s="9" t="inlineStr">
         <is>
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
+      <c r="E16" s="9" t="inlineStr">
         <is>
           <t>3/3</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="F16" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G16" s="8" t="inlineStr">
+      <c r="G16" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
@@ -3852,32 +3852,32 @@
           <t>DS161</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B17" s="9" t="inlineStr">
         <is>
           <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E17" s="8" t="inlineStr">
+      <c r="E17" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="F17" s="8" t="inlineStr">
+      <c r="F17" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
+      <c r="G17" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
@@ -3889,32 +3889,32 @@
           <t>EC161</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B18" s="9" t="inlineStr">
         <is>
           <t>Digital Design</t>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr">
         <is>
           <t>3-0-2-0-2</t>
         </is>
       </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="D18" s="9" t="inlineStr">
         <is>
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E18" s="8" t="inlineStr">
+      <c r="E18" s="9" t="inlineStr">
         <is>
           <t>3/3</t>
         </is>
       </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="F18" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
@@ -3926,32 +3926,32 @@
           <t>MA161</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B19" s="9" t="inlineStr">
         <is>
           <t>Statistics</t>
         </is>
       </c>
-      <c r="C19" s="8" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="D19" s="8" t="inlineStr">
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="inlineStr">
+      <c r="E19" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="F19" s="8" t="inlineStr">
+      <c r="F19" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G19" s="8" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
@@ -3963,32 +3963,32 @@
           <t>MA162</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
         <is>
           <t>Probability</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="C20" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D20" s="9" t="inlineStr">
         <is>
           <t>Post-Mid Only</t>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr">
+      <c r="E20" s="9" t="inlineStr">
         <is>
           <t>2/2</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="9" t="inlineStr">
         <is>
           <t>0/0</t>
         </is>
@@ -3996,12 +3996,12 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
-      <c r="B21" s="8" t="n"/>
-      <c r="C21" s="8" t="n"/>
-      <c r="D21" s="8" t="n"/>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
-      <c r="G21" s="8" t="n"/>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -4014,7 +4014,7 @@
       <c r="D22" s="35" t="n"/>
       <c r="E22" s="35" t="n"/>
       <c r="F22" s="36" t="n"/>
-      <c r="G22" s="8" t="n"/>
+      <c r="G22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
@@ -4047,7 +4047,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
-      <c r="G23" s="8" t="n"/>
+      <c r="G23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -4055,7 +4055,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>Introduction to quantam Physics</t>
         </is>
@@ -4065,22 +4065,22 @@
           <t>PH151</t>
         </is>
       </c>
-      <c r="D24" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
-        </is>
-      </c>
-      <c r="E24" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C101]</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L402]</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G24" s="8" t="n"/>
+      <c r="G24" s="9" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -4088,7 +4088,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B25" s="9" t="inlineStr">
         <is>
           <t>Linux for Engineers</t>
         </is>
@@ -4098,22 +4098,22 @@
           <t>DS151</t>
         </is>
       </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C102]</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="inlineStr">
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
+        </is>
+      </c>
+      <c r="E25" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L403]</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G25" s="8" t="n"/>
+      <c r="G25" s="9" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -4121,7 +4121,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
         <is>
           <t>Fundamentals of Computing</t>
         </is>
@@ -4131,22 +4131,22 @@
           <t>CS101</t>
         </is>
       </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C104]</t>
-        </is>
-      </c>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L404]</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G26" s="8" t="n"/>
+      <c r="G26" s="9" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -4154,7 +4154,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B27" s="9" t="inlineStr">
         <is>
           <t>introduction to cyber security</t>
         </is>
@@ -4164,22 +4164,22 @@
           <t>CS151</t>
         </is>
       </c>
-      <c r="D27" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C202]</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="inlineStr">
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E27" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L405]</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G27" s="8" t="n"/>
+      <c r="G27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -4187,7 +4187,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B28" s="9" t="inlineStr">
         <is>
           <t>Computational musicology for hindustani music</t>
         </is>
@@ -4197,22 +4197,22 @@
           <t>HS157</t>
         </is>
       </c>
-      <c r="D28" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C203]</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C203]</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L406]</t>
+        </is>
+      </c>
+      <c r="F28" s="9" t="inlineStr">
         <is>
           <t>1-0-0-0-1</t>
         </is>
       </c>
-      <c r="G28" s="8" t="n"/>
+      <c r="G28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -4220,7 +4220,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B29" s="9" t="inlineStr">
         <is>
           <t>Kannada Kali-Nali</t>
         </is>
@@ -4230,22 +4230,22 @@
           <t>HS102</t>
         </is>
       </c>
-      <c r="D29" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C204]</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="inlineStr">
+      <c r="D29" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E29" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L407]</t>
+        </is>
+      </c>
+      <c r="F29" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G29" s="8" t="n"/>
+      <c r="G29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -4253,7 +4253,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B30" s="9" t="inlineStr">
         <is>
           <t>Leveraging IT for Better Life</t>
         </is>
@@ -4263,22 +4263,22 @@
           <t>HS103</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
-        </is>
-      </c>
-      <c r="E30" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C205]</t>
-        </is>
-      </c>
-      <c r="F30" s="8" t="inlineStr">
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30 [L408]</t>
+        </is>
+      </c>
+      <c r="F30" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G30" s="8" t="n"/>
+      <c r="G30" s="9" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -4286,7 +4286,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B31" s="9" t="inlineStr">
         <is>
           <t>Basics of Design</t>
         </is>
@@ -4296,22 +4296,22 @@
           <t>DE101</t>
         </is>
       </c>
-      <c r="D31" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
-        </is>
-      </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C302]</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
         <is>
           <t>2-0-0-0-2</t>
         </is>
       </c>
-      <c r="G31" s="8" t="n"/>
+      <c r="G31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -4319,7 +4319,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
         <is>
           <t>Holistic Personality Development</t>
         </is>
@@ -4329,22 +4329,22 @@
           <t>HS156</t>
         </is>
       </c>
-      <c r="D32" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
-        </is>
-      </c>
-      <c r="E32" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C303]</t>
-        </is>
-      </c>
-      <c r="F32" s="8" t="inlineStr">
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
         <is>
           <t>1-0-0-0-1</t>
         </is>
       </c>
-      <c r="G32" s="8" t="n"/>
+      <c r="G32" s="9" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
@@ -4352,7 +4352,7 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B33" s="9" t="inlineStr">
         <is>
           <t>Economics/IET</t>
         </is>
@@ -4362,22 +4362,22 @@
           <t>HS152</t>
         </is>
       </c>
-      <c r="D33" s="8" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
-        </is>
-      </c>
-      <c r="E33" s="8" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [C304]</t>
-        </is>
-      </c>
-      <c r="F33" s="8" t="inlineStr">
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
         <is>
           <t>3-0-0-0-3</t>
         </is>
       </c>
-      <c r="G33" s="8" t="n"/>
+      <c r="G33" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4507,17 +4507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>DS161 [L403]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4571,12 +4571,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>MA161 [L404]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS161 [C001]</t>
+          <t>MA161 [L404]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA161 [C001]</t>
+          <t>DS161 [L403]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4699,17 +4699,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>CS161 [C205]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Lab) [C204]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4779,27 +4779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C102]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C102]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C102]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C102]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C102]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4848,22 +4848,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C102]</t>
+          <t>2-0-0-0-2 [C305]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C102]</t>
+          <t>Pre-Mid Only [C104]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C104]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4880,12 +4880,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C102]</t>
+          <t>3-0-2-0-2 [C104]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C102]</t>
+          <t>Post-Mid Only [C104]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4912,22 +4912,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C102]</t>
+          <t>2-0-0-0-2 [C305]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C102]</t>
+          <t>Pre-Mid Only [C104]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C104]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4944,22 +4944,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C102]</t>
+          <t>2-0-0-0-2 [C305]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C102]</t>
+          <t>Post-Mid Only [C104]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C104]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C104]</t>
         </is>
       </c>
     </row>
@@ -4995,27 +4995,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Course [C102]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Course Code [C102]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C102]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C102]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C102]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -5027,27 +5027,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5059,27 +5059,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5091,27 +5091,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5123,27 +5123,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5155,27 +5155,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5187,27 +5187,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5251,27 +5251,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5283,27 +5283,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5315,27 +5315,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [C004]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PH151 [C004]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C004]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5417,10 +5417,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5515,10 +5515,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5583,10 +5583,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52.5</v>
+        <v>13.5</v>
       </c>
       <c r="E7" t="n">
-        <v>10.5</v>
+        <v>2.7</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6447,10 +6447,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6515,10 +6515,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6722,12 +6722,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6756,12 +6756,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -6794,27 +6794,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -6828,17 +6828,17 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P3" t="b">
@@ -6866,27 +6866,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
@@ -6900,17 +6900,17 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P4" t="b">
@@ -6938,25 +6938,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -6968,12 +6972,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -7006,12 +7010,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -7045,7 +7049,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Introduction to data science and artifical inteligance</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -7078,12 +7082,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7117,7 +7121,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Problem Solving</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -7150,12 +7154,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -7189,7 +7193,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -7222,12 +7226,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7261,7 +7265,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -7289,17 +7293,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7314,7 +7318,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -7328,12 +7332,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7361,17 +7365,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7381,12 +7385,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7400,12 +7404,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7433,17 +7437,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7453,12 +7457,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7472,12 +7476,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7510,12 +7514,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7530,7 +7534,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7544,12 +7548,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7582,25 +7586,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
@@ -7612,12 +7620,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7650,25 +7658,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -7680,12 +7692,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7718,12 +7730,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7738,7 +7750,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -7752,12 +7764,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7790,12 +7802,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7810,7 +7822,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -7824,12 +7836,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7857,32 +7869,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7896,17 +7908,17 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P18" t="b">
@@ -7929,17 +7941,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7954,7 +7966,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -7968,17 +7980,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P19" t="b">
@@ -8001,17 +8013,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -8045,7 +8057,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8073,17 +8085,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -8112,12 +8124,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8145,17 +8157,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -8184,12 +8196,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -8222,25 +8234,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -8252,12 +8268,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -8290,12 +8306,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8324,12 +8340,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8357,7 +8373,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -8367,7 +8383,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8401,7 +8417,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8429,7 +8445,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -8439,7 +8455,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8468,12 +8484,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8501,7 +8517,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -8511,7 +8527,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8545,7 +8561,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8573,7 +8589,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -8583,7 +8599,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8612,12 +8628,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8645,7 +8661,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -8655,7 +8671,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8684,12 +8700,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8717,17 +8733,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8756,12 +8772,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8789,17 +8805,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8828,12 +8844,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8861,17 +8877,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8900,12 +8916,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8933,17 +8949,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8972,12 +8988,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -9005,17 +9021,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -9044,12 +9060,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -9077,17 +9093,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9102,7 +9118,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -9110,25 +9126,21 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="b">
         <v>0</v>
       </c>
@@ -9149,17 +9161,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9182,18 +9194,22 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9221,17 +9237,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9254,10 +9270,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>C102</t>
@@ -9265,7 +9285,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9293,17 +9313,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9326,18 +9346,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9365,17 +9389,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9390,7 +9414,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9398,18 +9422,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9437,17 +9465,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9462,7 +9490,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9470,18 +9498,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9509,17 +9541,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9534,7 +9566,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9542,18 +9574,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9581,17 +9617,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9614,18 +9650,22 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9653,17 +9693,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9678,7 +9718,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -9686,18 +9726,22 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9725,17 +9769,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9750,7 +9794,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -9758,18 +9802,22 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9807,7 +9855,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9822,7 +9870,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9840,12 +9888,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9878,12 +9926,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9893,12 +9941,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9909,26 +9957,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="b">
         <v>0</v>
       </c>
@@ -9954,12 +9994,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9969,12 +10009,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -9985,26 +10025,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="b">
         <v>0</v>
       </c>
@@ -10030,12 +10062,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10045,12 +10077,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -10061,26 +10093,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="b">
         <v>0</v>
       </c>
@@ -10101,7 +10125,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -10111,7 +10135,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10121,7 +10145,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -10137,26 +10161,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -10177,17 +10193,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10197,7 +10213,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -10213,26 +10229,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -10253,17 +10261,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10273,7 +10281,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -10289,26 +10297,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="b">
         <v>0</v>
       </c>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10339,7 +10339,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10372,12 +10372,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10430,7 +10430,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10448,12 +10448,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10524,12 +10524,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10557,56 +10557,64 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10625,32 +10633,32 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10661,18 +10669,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P56" t="b">
         <v>0</v>
       </c>
@@ -10693,56 +10709,64 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10771,7 +10795,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10804,12 +10828,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10847,7 +10871,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10862,7 +10886,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10880,12 +10904,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10923,7 +10947,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10938,7 +10962,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10956,12 +10980,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10999,7 +11023,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -11014,7 +11038,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -11032,12 +11056,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -11070,12 +11094,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -11101,26 +11125,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -11146,27 +11162,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -11177,26 +11193,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11222,27 +11230,27 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11253,26 +11261,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -11298,29 +11298,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -11329,26 +11325,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="b">
         <v>0</v>
       </c>
@@ -11374,12 +11362,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11389,7 +11377,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -11405,26 +11393,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="b">
         <v>0</v>
       </c>
@@ -11450,12 +11430,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11465,7 +11445,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -11481,26 +11461,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="b">
         <v>0</v>
       </c>
@@ -11521,36 +11493,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -11560,17 +11528,17 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -11589,32 +11557,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -11628,12 +11596,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -11657,17 +11625,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11677,7 +11645,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -11696,12 +11664,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -11725,36 +11693,36 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -11764,17 +11732,17 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -11793,17 +11761,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11818,7 +11786,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11829,18 +11797,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11861,32 +11837,32 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11897,18 +11873,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P73" t="b">
         <v>0</v>
       </c>
@@ -11929,7 +11913,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11939,22 +11923,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -11965,18 +11949,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -11997,56 +11989,64 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -12075,7 +12075,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12090,7 +12090,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12108,12 +12108,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -12184,12 +12184,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12242,7 +12242,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -12260,12 +12260,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12303,7 +12303,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12336,12 +12336,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12379,7 +12379,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12412,12 +12412,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12488,12 +12488,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -12526,27 +12526,27 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12557,26 +12557,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12602,27 +12594,27 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12633,26 +12625,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="b">
         <v>0</v>
       </c>
@@ -12678,12 +12662,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12693,7 +12677,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -12709,26 +12693,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="b">
         <v>0</v>
       </c>
@@ -12754,12 +12730,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12769,7 +12745,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -12785,26 +12761,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="b">
         <v>0</v>
       </c>
@@ -12825,36 +12793,36 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -12864,84 +12832,16 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12994,7 +12894,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -13045,7 +12945,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
@@ -13062,7 +12962,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C203, C204</t>
         </is>
       </c>
     </row>
@@ -13079,7 +12979,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C204, C205</t>
         </is>
       </c>
     </row>
@@ -13096,7 +12996,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C205, C302</t>
         </is>
       </c>
     </row>
@@ -13113,7 +13013,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C302, C303</t>
         </is>
       </c>
     </row>
@@ -13130,7 +13030,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C303, C304</t>
         </is>
       </c>
     </row>
@@ -13147,7 +13047,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C304, C305</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -308,9 +308,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -323,13 +320,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -467,3928 +467,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="35" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>SEMESTER 1 - DSAI BRANCH: COURSE INFORMATION</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>CORE COURSES</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>Display Format</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>Sunil P V, Sunil C K, Animesh Roy</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>CS161 (3-0-2-0-4 | Full Sem)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to data science and artifical inteligance</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Abdul Wahid</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>DS161 (2-0-0-0-2 | Pre-Mid Only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>EC161 (3-0-2-0-2 | Post-Mid Only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>Ramesh Athe</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>MA161 (2-0-0-0-2 | Pre-Mid Only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>Chimayananda A</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>MA162 (2-0-0-0-2 | Post-Mid Only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>ELECTIVE COURSES</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>Display Format</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Fundamentals of Computing</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>Mallikarjun Kande</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>CS101 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>CS151 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>DE101 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>Vivekraj</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>DS151 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>Kannada Kali-Nali</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>Anand Barangi</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>HS102 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>HS103 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>Anushree</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>HS152 (3-0-0-0-3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>Holistic Personality Development</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>Rajesh N S</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>HS156 (1-0-0-0-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>Computational musicology for hindustani music</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>Chandrika Kamat</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>HS157 (1-0-0-0-1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>Ravishankar, Vivekraj</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>PH151 (2-0-0-0-2)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="48" customWidth="1" min="4" max="4"/>
-    <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>CS161 [C204]</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>DS161 [L403]</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
-        <is>
-          <t>MA162 [C001]</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>DS161 [L403]</t>
-        </is>
-      </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>MA161 [L404]</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>CS161 [C305]</t>
-        </is>
-      </c>
-      <c r="E4" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C003]</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G4" s="9" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C003]</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G6" s="9" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="G7" s="9" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>MA161 [L404]</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>MA162 [C001]</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
-        </is>
-      </c>
-      <c r="G8" s="9" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
-        </is>
-      </c>
-      <c r="G9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="9" t="n"/>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="9" t="n"/>
-      <c r="F11" s="9" t="n"/>
-      <c r="G11" s="9" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="9" t="n"/>
-      <c r="C12" s="9" t="n"/>
-      <c r="D12" s="9" t="n"/>
-      <c r="E12" s="9" t="n"/>
-      <c r="F12" s="9" t="n"/>
-      <c r="G12" s="9" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>COURSE INFORMATION</t>
-        </is>
-      </c>
-      <c r="B13" s="35" t="n"/>
-      <c r="C13" s="35" t="n"/>
-      <c r="D13" s="35" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="9" t="n"/>
-      <c r="G13" s="9" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>CORE COURSES</t>
-        </is>
-      </c>
-      <c r="B14" s="35" t="n"/>
-      <c r="C14" s="35" t="n"/>
-      <c r="D14" s="35" t="n"/>
-      <c r="E14" s="35" t="n"/>
-      <c r="F14" s="35" t="n"/>
-      <c r="G14" s="36" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B15" s="19" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C15" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="D15" s="19" t="inlineStr">
-        <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="E15" s="19" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="F15" s="19" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="G15" s="19" t="inlineStr">
-        <is>
-          <t>Labs Hrs</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C16" s="9" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G16" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="B17" s="9" t="inlineStr">
-        <is>
-          <t>Introduction to data science and artifical inteligance</t>
-        </is>
-      </c>
-      <c r="C17" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E17" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F17" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G17" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="22" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C18" s="9" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E18" s="9" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G18" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C19" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E19" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F19" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G19" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C20" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F20" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G20" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="9" t="n"/>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="9" t="n"/>
-      <c r="E21" s="9" t="n"/>
-      <c r="F21" s="9" t="n"/>
-      <c r="G21" s="9" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>ELECTIVE BASKETS</t>
-        </is>
-      </c>
-      <c r="B22" s="35" t="n"/>
-      <c r="C22" s="35" t="n"/>
-      <c r="D22" s="35" t="n"/>
-      <c r="E22" s="35" t="n"/>
-      <c r="F22" s="36" t="n"/>
-      <c r="G22" s="9" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B23" s="19" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C23" s="19" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="D23" s="19" t="inlineStr">
-        <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="E23" s="19" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="G23" s="9" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="C24" s="25" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L402]</t>
-        </is>
-      </c>
-      <c r="F24" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G24" s="9" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C25" s="26" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
-        </is>
-      </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L403]</t>
-        </is>
-      </c>
-      <c r="F25" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G25" s="9" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>Fundamentals of Computing</t>
-        </is>
-      </c>
-      <c r="C26" s="27" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L404]</t>
-        </is>
-      </c>
-      <c r="F26" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G26" s="9" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B27" s="9" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="C27" s="28" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="D27" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E27" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L405]</t>
-        </is>
-      </c>
-      <c r="F27" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G27" s="9" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>Computational musicology for hindustani music</t>
-        </is>
-      </c>
-      <c r="C28" s="29" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E28" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L406]</t>
-        </is>
-      </c>
-      <c r="F28" s="9" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G28" s="9" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>Kannada Kali-Nali</t>
-        </is>
-      </c>
-      <c r="C29" s="30" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E29" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L407]</t>
-        </is>
-      </c>
-      <c r="F29" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G29" s="9" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="C30" s="31" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E30" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L408]</t>
-        </is>
-      </c>
-      <c r="F30" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G30" s="9" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="C31" s="32" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F31" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G31" s="9" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>Holistic Personality Development</t>
-        </is>
-      </c>
-      <c r="C32" s="33" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F32" s="9" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G32" s="9" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C33" s="34" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F33" s="9" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="G33" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A13:E13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="48" customWidth="1" min="4" max="4"/>
-    <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>CS161 [C204]</t>
-        </is>
-      </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>MA162 [C001]</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>MA162 [C001]</t>
-        </is>
-      </c>
-      <c r="C4" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C003]</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G4" s="9" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G6" s="9" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C7" s="14" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L105]</t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="G7" s="9" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>EC161 [C003]</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G8" s="9" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CS161 [C204]</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="9" t="n"/>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="9" t="n"/>
-      <c r="F11" s="9" t="n"/>
-      <c r="G11" s="9" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="9" t="n"/>
-      <c r="C12" s="9" t="n"/>
-      <c r="D12" s="9" t="n"/>
-      <c r="E12" s="9" t="n"/>
-      <c r="F12" s="9" t="n"/>
-      <c r="G12" s="9" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>COURSE INFORMATION</t>
-        </is>
-      </c>
-      <c r="B13" s="35" t="n"/>
-      <c r="C13" s="35" t="n"/>
-      <c r="D13" s="35" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="9" t="n"/>
-      <c r="G13" s="9" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>CORE COURSES</t>
-        </is>
-      </c>
-      <c r="B14" s="35" t="n"/>
-      <c r="C14" s="35" t="n"/>
-      <c r="D14" s="35" t="n"/>
-      <c r="E14" s="35" t="n"/>
-      <c r="F14" s="35" t="n"/>
-      <c r="G14" s="36" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B15" s="19" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C15" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="D15" s="19" t="inlineStr">
-        <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="E15" s="19" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="F15" s="19" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="G15" s="19" t="inlineStr">
-        <is>
-          <t>Labs Hrs</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C16" s="9" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G16" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="B17" s="9" t="inlineStr">
-        <is>
-          <t>Introduction to data science and artifical inteligance</t>
-        </is>
-      </c>
-      <c r="C17" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E17" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F17" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G17" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="22" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C18" s="9" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E18" s="9" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G18" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C19" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E19" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F19" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G19" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C20" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F20" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G20" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="9" t="n"/>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="9" t="n"/>
-      <c r="E21" s="9" t="n"/>
-      <c r="F21" s="9" t="n"/>
-      <c r="G21" s="9" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>ELECTIVE BASKETS</t>
-        </is>
-      </c>
-      <c r="B22" s="35" t="n"/>
-      <c r="C22" s="35" t="n"/>
-      <c r="D22" s="35" t="n"/>
-      <c r="E22" s="35" t="n"/>
-      <c r="F22" s="36" t="n"/>
-      <c r="G22" s="9" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B23" s="19" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C23" s="19" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="D23" s="19" t="inlineStr">
-        <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="E23" s="19" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="G23" s="9" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="C24" s="25" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L402]</t>
-        </is>
-      </c>
-      <c r="F24" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G24" s="9" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C25" s="26" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
-        </is>
-      </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L403]</t>
-        </is>
-      </c>
-      <c r="F25" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G25" s="9" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>Fundamentals of Computing</t>
-        </is>
-      </c>
-      <c r="C26" s="27" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L404]</t>
-        </is>
-      </c>
-      <c r="F26" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G26" s="9" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B27" s="9" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="C27" s="28" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="D27" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E27" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L405]</t>
-        </is>
-      </c>
-      <c r="F27" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G27" s="9" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>Computational musicology for hindustani music</t>
-        </is>
-      </c>
-      <c r="C28" s="29" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E28" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L406]</t>
-        </is>
-      </c>
-      <c r="F28" s="9" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G28" s="9" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>Kannada Kali-Nali</t>
-        </is>
-      </c>
-      <c r="C29" s="30" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E29" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L407]</t>
-        </is>
-      </c>
-      <c r="F29" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G29" s="9" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="C30" s="31" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E30" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L408]</t>
-        </is>
-      </c>
-      <c r="F30" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G30" s="9" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="C31" s="32" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F31" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G31" s="9" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>Holistic Personality Development</t>
-        </is>
-      </c>
-      <c r="C32" s="33" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F32" s="9" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G32" s="9" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C33" s="34" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F33" s="9" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="G33" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A13:E13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="48" customWidth="1" min="4" max="4"/>
-    <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>CS161 [C205]</t>
-        </is>
-      </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G2" s="9" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G3" s="9" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>DS161 [L403]</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G4" s="9" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="15" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="G5" s="9" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>MA161 [L404]</t>
-        </is>
-      </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>MA161 [L404]</t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G6" s="9" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C7" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="G7" s="9" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B8" s="11" t="inlineStr">
-        <is>
-          <t>DS161 [L403]</t>
-        </is>
-      </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G8" s="9" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CS161 [C205]</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [C204]</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="G10" s="9" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="9" t="n"/>
-      <c r="C11" s="9" t="n"/>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="9" t="n"/>
-      <c r="F11" s="9" t="n"/>
-      <c r="G11" s="9" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
-      <c r="B12" s="9" t="n"/>
-      <c r="C12" s="9" t="n"/>
-      <c r="D12" s="9" t="n"/>
-      <c r="E12" s="9" t="n"/>
-      <c r="F12" s="9" t="n"/>
-      <c r="G12" s="9" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>COURSE INFORMATION</t>
-        </is>
-      </c>
-      <c r="B13" s="35" t="n"/>
-      <c r="C13" s="35" t="n"/>
-      <c r="D13" s="35" t="n"/>
-      <c r="E13" s="36" t="n"/>
-      <c r="F13" s="9" t="n"/>
-      <c r="G13" s="9" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>CORE COURSES</t>
-        </is>
-      </c>
-      <c r="B14" s="35" t="n"/>
-      <c r="C14" s="35" t="n"/>
-      <c r="D14" s="35" t="n"/>
-      <c r="E14" s="35" t="n"/>
-      <c r="F14" s="35" t="n"/>
-      <c r="G14" s="36" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B15" s="19" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C15" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="D15" s="19" t="inlineStr">
-        <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="E15" s="19" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="F15" s="19" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="G15" s="19" t="inlineStr">
-        <is>
-          <t>Labs Hrs</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Problem Solving</t>
-        </is>
-      </c>
-      <c r="C16" s="9" t="inlineStr">
-        <is>
-          <t>3-0-2-0-4</t>
-        </is>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F16" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G16" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="B17" s="9" t="inlineStr">
-        <is>
-          <t>Introduction to data science and artifical inteligance</t>
-        </is>
-      </c>
-      <c r="C17" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E17" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F17" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G17" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="22" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C18" s="9" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E18" s="9" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G18" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C19" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
-      <c r="E19" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F19" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G19" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C20" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>Post-Mid Only</t>
-        </is>
-      </c>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-      <c r="F20" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="G20" s="9" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="B21" s="9" t="n"/>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="9" t="n"/>
-      <c r="E21" s="9" t="n"/>
-      <c r="F21" s="9" t="n"/>
-      <c r="G21" s="9" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>ELECTIVE BASKETS</t>
-        </is>
-      </c>
-      <c r="B22" s="35" t="n"/>
-      <c r="C22" s="35" t="n"/>
-      <c r="D22" s="35" t="n"/>
-      <c r="E22" s="35" t="n"/>
-      <c r="F22" s="36" t="n"/>
-      <c r="G22" s="9" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B23" s="19" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C23" s="19" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="D23" s="19" t="inlineStr">
-        <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="E23" s="19" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="G23" s="9" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>Introduction to quantam Physics</t>
-        </is>
-      </c>
-      <c r="C24" s="25" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30 [L406]</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L402]</t>
-        </is>
-      </c>
-      <c r="F24" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G24" s="9" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>Linux for Engineers</t>
-        </is>
-      </c>
-      <c r="C25" s="26" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30 [L407]</t>
-        </is>
-      </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L403]</t>
-        </is>
-      </c>
-      <c r="F25" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G25" s="9" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>Fundamentals of Computing</t>
-        </is>
-      </c>
-      <c r="C26" s="27" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30 [L408], Wed 09:00-10:30 [L408]</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L404]</t>
-        </is>
-      </c>
-      <c r="F26" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G26" s="9" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B27" s="9" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="C27" s="28" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="D27" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E27" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L405]</t>
-        </is>
-      </c>
-      <c r="F27" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G27" s="9" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>Computational musicology for hindustani music</t>
-        </is>
-      </c>
-      <c r="C28" s="29" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E28" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L406]</t>
-        </is>
-      </c>
-      <c r="F28" s="9" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G28" s="9" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>Kannada Kali-Nali</t>
-        </is>
-      </c>
-      <c r="C29" s="30" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E29" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L407]</t>
-        </is>
-      </c>
-      <c r="F29" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G29" s="9" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="inlineStr">
-        <is>
-          <t>Leveraging IT for Better Life</t>
-        </is>
-      </c>
-      <c r="C30" s="31" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E30" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30 [L408]</t>
-        </is>
-      </c>
-      <c r="F30" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G30" s="9" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="C31" s="32" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F31" s="9" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G31" s="9" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>Holistic Personality Development</t>
-        </is>
-      </c>
-      <c r="C32" s="33" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F32" s="9" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="G32" s="9" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="inlineStr">
-        <is>
-          <t>Economics/IET</t>
-        </is>
-      </c>
-      <c r="C33" s="34" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F33" s="9" t="inlineStr">
-        <is>
-          <t>3-0-0-0-3</t>
-        </is>
-      </c>
-      <c r="G33" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A13:E13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -4448,7 +526,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4512,12 +590,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS161 [L403]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 [C003]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4571,17 +649,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA161 [L404]</t>
+          <t>CS161 [C304]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA161 [L404]</t>
+          <t>DS161 [L405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS161 [L405]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4635,7 +713,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DS161 [L403]</t>
+          <t>MA161 [C003]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4645,7 +723,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -4677,7 +755,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [C003]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4699,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4709,7 +787,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4779,27 +857,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Course Name [C204]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [C204]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Term Type [C204]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>Lectures Hrs [C204]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>Tutorials Hrs [C204]</t>
         </is>
       </c>
     </row>
@@ -4811,27 +889,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Problem Solving [C102]</t>
+          <t>Problem Solving [C204]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C102]</t>
+          <t>3-0-2-0-4 [C204]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -4843,27 +921,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance [C102]</t>
+          <t>Introduction to data science and artifical inteligance [C204]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C305]</t>
+          <t>2-0-0-0-2 [C204]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C104]</t>
+          <t>Pre-Mid Only [C204]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C104]</t>
+          <t>2/2 [C204]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -4875,27 +953,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Digital Design [C102]</t>
+          <t>Digital Design [C204]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C104]</t>
+          <t>3-0-2-0-2 [C204]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C104]</t>
+          <t>Post-Mid Only [C204]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -4907,27 +985,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Statistics [C102]</t>
+          <t>Statistics [C204]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C305]</t>
+          <t>2-0-0-0-2 [C204]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C104]</t>
+          <t>Pre-Mid Only [C204]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2/2 [C104]</t>
+          <t>2/2 [C204]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -4939,27 +1017,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Probability [C102]</t>
+          <t>Probability [C204]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C305]</t>
+          <t>2-0-0-0-2 [C204]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C104]</t>
+          <t>Post-Mid Only [C204]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C104]</t>
+          <t>2/2 [C204]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C104]</t>
+          <t>0/0 [C204]</t>
         </is>
       </c>
     </row>
@@ -4995,27 +1073,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Course [C204]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Course Code [C204]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>Lecture Slot - Classroom [C204]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Tutorial Slot - Classroom [C204]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [C204]</t>
         </is>
       </c>
     </row>
@@ -5037,7 +1115,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5069,7 +1147,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5101,7 +1179,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5133,7 +1211,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5165,7 +1243,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5197,7 +1275,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5229,7 +1307,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5261,7 +1339,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5293,7 +1371,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5325,7 +1403,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [L406], Wed 09:00-10:30</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5481,10 +1559,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5583,10 +1661,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5651,10 +1729,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5889,10 +1967,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>52.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>10.5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5923,10 +2001,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -6195,10 +2273,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6229,10 +2307,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6413,10 +2491,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6447,10 +2525,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6481,10 +2559,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6515,10 +2593,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6549,10 +2627,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6611,7 +2689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6727,7 +2805,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -6737,7 +2815,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6756,12 +2834,12 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -6799,22 +2877,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -6828,12 +2906,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -6866,12 +2944,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6900,12 +2978,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -6958,7 +3036,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -6972,7 +3050,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7030,7 +3108,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -7044,7 +3122,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -7102,7 +3180,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -7116,7 +3194,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7174,7 +3252,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -7188,7 +3266,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7246,7 +3324,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -7260,7 +3338,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7293,17 +3371,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -7332,12 +3410,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7375,22 +3453,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7404,12 +3482,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7447,7 +3525,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7476,12 +3554,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7514,12 +3592,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7534,7 +3612,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -7548,12 +3626,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7586,12 +3664,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7620,12 +3698,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7658,12 +3736,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7678,7 +3756,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7692,12 +3770,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7730,12 +3808,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7764,12 +3842,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7802,7 +3880,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -7836,7 +3914,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -7869,32 +3947,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7908,17 +3986,17 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P18" t="b">
@@ -7941,17 +4019,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7985,12 +4063,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P19" t="b">
@@ -8018,22 +4096,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -8052,12 +4130,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -8090,14 +4168,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Pre-Mid Only</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>classroom</t>
@@ -8105,12 +4183,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -8124,12 +4202,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -8162,27 +4240,27 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -8196,17 +4274,17 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P22" t="b">
@@ -8234,22 +4312,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -8268,17 +4346,17 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Pre-Mid Only</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P23" t="b">
@@ -8306,12 +4384,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -8326,7 +4404,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -8340,12 +4418,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Post-Mid Only</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -8373,7 +4451,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -8383,7 +4461,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8398,7 +4476,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8412,12 +4490,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8445,7 +4523,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -8455,7 +4533,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8470,7 +4548,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -8484,12 +4562,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8517,7 +4595,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -8527,7 +4605,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8542,7 +4620,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8556,12 +4634,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8589,7 +4667,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -8599,7 +4677,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8614,7 +4692,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8628,12 +4706,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Pre-Mid Only</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8661,7 +4739,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -8671,7 +4749,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8686,7 +4764,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -8700,12 +4778,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>Post-Mid Only</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8733,17 +4811,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8758,7 +4836,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -8772,12 +4850,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8805,17 +4883,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8830,7 +4908,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -8844,12 +4922,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8877,17 +4955,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8902,7 +4980,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -8916,12 +4994,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8949,17 +5027,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8974,7 +5052,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8988,12 +5066,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -9021,17 +5099,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -9046,7 +5124,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -9060,12 +5138,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -9093,17 +5171,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -9126,7 +5204,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
@@ -9137,10 +5215,14 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P35" t="b">
         <v>0</v>
       </c>
@@ -9161,17 +5243,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -9186,7 +5268,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -9194,22 +5276,18 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>2/2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -9237,17 +5315,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -9262,7 +5340,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -9270,22 +5348,18 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9313,17 +5387,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -9338,7 +5412,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -9346,22 +5420,18 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9389,17 +5459,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9422,22 +5492,18 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9465,17 +5531,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9498,14 +5564,10 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>C204</t>
@@ -9513,7 +5575,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9541,17 +5603,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9574,22 +5636,18 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9617,17 +5675,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9642,7 +5700,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -9650,22 +5708,18 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9693,17 +5747,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9726,22 +5780,18 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9769,17 +5819,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9802,22 +5852,18 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9855,7 +5901,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9870,7 +5916,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9888,12 +5934,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9926,12 +5972,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9941,12 +5987,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9957,18 +6003,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P46" t="b">
         <v>0</v>
       </c>
@@ -9994,12 +6048,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -10009,12 +6063,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -10025,18 +6079,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P47" t="b">
         <v>0</v>
       </c>
@@ -10062,12 +6124,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -10077,12 +6139,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -10093,18 +6155,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P48" t="b">
         <v>0</v>
       </c>
@@ -10125,7 +6195,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -10135,7 +6205,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -10145,7 +6215,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -10161,18 +6231,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -10193,17 +6271,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -10213,7 +6291,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -10229,18 +6307,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -10261,17 +6347,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -10281,7 +6367,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -10297,18 +6383,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P51" t="b">
         <v>0</v>
       </c>
@@ -10329,7 +6423,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10339,7 +6433,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10372,12 +6466,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10405,7 +6499,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10415,7 +6509,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10430,7 +6524,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10448,12 +6542,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10481,7 +6575,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10491,7 +6585,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10506,7 +6600,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10524,12 +6618,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -10557,32 +6651,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10593,26 +6687,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="b">
         <v>0</v>
       </c>
@@ -10633,17 +6719,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10653,7 +6739,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -10669,26 +6755,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>HS157</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="b">
         <v>0</v>
       </c>
@@ -10709,7 +6787,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -10719,22 +6797,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10745,26 +6823,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="b">
         <v>0</v>
       </c>
@@ -10785,27 +6855,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10821,26 +6891,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="b">
         <v>0</v>
       </c>
@@ -10861,17 +6923,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10881,7 +6943,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -10897,26 +6959,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="b">
         <v>0</v>
       </c>
@@ -10947,7 +7001,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10962,7 +7016,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10980,12 +7034,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -11023,7 +7077,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -11038,7 +7092,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -11056,12 +7110,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -11094,12 +7148,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -11114,7 +7168,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -11125,18 +7179,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -11162,27 +7224,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -11193,18 +7255,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P63" t="b">
         <v>0</v>
       </c>
@@ -11230,27 +7300,27 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -11261,18 +7331,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -11298,25 +7376,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
@@ -11325,18 +7407,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P65" t="b">
         <v>0</v>
       </c>
@@ -11362,12 +7452,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11377,7 +7467,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -11393,18 +7483,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P66" t="b">
         <v>0</v>
       </c>
@@ -11430,12 +7528,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11445,12 +7543,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11461,18 +7559,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P67" t="b">
         <v>0</v>
       </c>
@@ -11493,7 +7599,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -11503,20 +7609,24 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
@@ -11525,18 +7635,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P68" t="b">
         <v>0</v>
       </c>
@@ -11557,32 +7675,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -11593,18 +7711,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P69" t="b">
         <v>0</v>
       </c>
@@ -11625,32 +7751,32 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -11664,12 +7790,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -11693,17 +7819,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11737,7 +7863,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Mon 09:00-10:30 [L407], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
@@ -11761,27 +7887,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -11797,26 +7923,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11837,34 +7955,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="b">
         <v>0</v>
       </c>
@@ -11873,26 +7987,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>DS151</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="b">
         <v>0</v>
       </c>
@@ -11913,17 +8019,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11933,12 +8039,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -11949,26 +8055,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>CS101</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -11999,7 +8097,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -12032,12 +8130,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -12075,7 +8173,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12090,7 +8188,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12108,12 +8206,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12151,7 +8249,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12166,7 +8264,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -12184,12 +8282,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12227,7 +8325,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12242,7 +8340,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -12260,12 +8358,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12303,7 +8401,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12318,7 +8416,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12336,12 +8434,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12379,7 +8477,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12412,12 +8510,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -12455,7 +8553,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12488,12 +8586,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -12526,27 +8624,27 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12557,18 +8655,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12594,27 +8700,27 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12625,18 +8731,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P83" t="b">
         <v>0</v>
       </c>
@@ -12662,12 +8776,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12677,7 +8791,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -12693,18 +8807,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P84" t="b">
         <v>0</v>
       </c>
@@ -12730,27 +8852,27 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J85" t="b">
@@ -12764,12 +8886,12 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
@@ -12793,12 +8915,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -12832,7 +8954,7 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -12842,6 +8964,210 @@
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12894,7 +9220,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C101, L408</t>
         </is>
       </c>
     </row>
@@ -12945,7 +9271,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -12962,7 +9288,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C203, C204</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -12979,7 +9305,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204, C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -12996,7 +9322,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C205, C302</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -13013,7 +9339,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C302, C303</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -13030,7 +9356,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C303, C304</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -13047,7 +9373,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C304, C305</t>
+          <t>C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -314,13 +314,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -329,7 +326,10 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C102]</t>
+          <t>DS161 [C101]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>MA162 [C203]</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
@@ -1477,22 +1477,22 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>MA161 [C102]</t>
+          <t>DS161 [C303]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DS161 [C302]</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C202]</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
+          <t>EC161 [C302]</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
+        <is>
+          <t>EC161 [C305]</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
@@ -1508,27 +1508,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -1541,24 +1541,24 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C302]</t>
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C104]</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C304]</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
+          <t>CS161 [C302]</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
         <is>
           <t>CS161 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1584,14 +1584,14 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>CS161 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" s="9" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>MA162 [C304]</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C202]</t>
+          <t>CS161 [C205]</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C304]</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>MA162 [C202]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1627,9 +1627,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -1660,9 +1660,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2105,12 +2105,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2237,12 +2237,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2336,12 +2336,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -2461,9 +2461,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C303]</t>
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2489,19 +2489,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C101]</t>
-        </is>
-      </c>
-      <c r="C4" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C304]</t>
-        </is>
-      </c>
-      <c r="D4" s="15" t="inlineStr">
-        <is>
-          <t>MA162 [C304]</t>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C104]</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C101]</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C202]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2522,27 +2522,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -2555,14 +2555,14 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L207]</t>
-        </is>
-      </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C202]</t>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>EC161 [C204]</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -2588,9 +2588,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L207]</t>
+      <c r="B7" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2621,9 +2621,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>EC161 [C202]</t>
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>EC161 [C203]</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -2631,9 +2631,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2664,9 +2664,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3119,12 +3119,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3350,12 +3350,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -3475,9 +3475,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C302]</t>
+      <c r="C3" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C204]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3503,19 +3503,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>CS161 [C104]</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C102]</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C302]</t>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>CS161 [C205]</t>
+        </is>
+      </c>
+      <c r="C4" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C104]</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C203]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3536,27 +3536,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="14" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="14" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -3569,14 +3569,14 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="inlineStr">
-        <is>
-          <t>DS161 [C302]</t>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C205]</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -3602,9 +3602,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
+      <c r="B7" s="15" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3635,9 +3635,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>MA161 [C102]</t>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>MA161 [C104]</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -4067,12 +4067,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C102]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -4133,12 +4133,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C104]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C305], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C202]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4265,12 +4265,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C204]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4298,12 +4298,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
+          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4364,12 +4364,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
+          <t>Mon 09:00-10:30 [C304], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C307]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4507,17 +4507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [L107]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA161 [C102]</t>
+          <t>MA161 [L404]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DS161 [C303]</t>
+          <t>DS161 [L408]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -4571,12 +4571,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L206]</t>
+          <t>CS161 (Lab) [C307]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS161 [C304]</t>
+          <t>DS161 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L206]</t>
+          <t>CS161 (Lab) [C307]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [L408]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4779,27 +4779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [L408]</t>
+          <t>Course Name [L207]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L406]</t>
+          <t>L-T-P-S-C [L208]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L407]</t>
+          <t>Term Type [L105]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L405]</t>
+          <t>Lectures Hrs [L107]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L402]</t>
+          <t>Tutorials Hrs [L208]</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4811,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Problem Solving [C202]</t>
+          <t>Problem Solving [C303]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C304]</t>
+          <t>3-0-2-0-4 [C204]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C305]</t>
+          <t>3/3 [C203]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C203]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -4843,27 +4843,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance [C104]</t>
+          <t>Introduction to data science and artifical inteligance [C204]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C305]</t>
+          <t>2-0-0-0-2 [C304]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C101]</t>
+          <t>Pre-Mid Only [C202]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2/2 [C202]</t>
+          <t>2/2 [C304]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0/0 [C204]</t>
+          <t>0/0 [C305]</t>
         </is>
       </c>
     </row>
@@ -4875,27 +4875,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Digital Design [C202]</t>
+          <t>Digital Design [C303]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-0-2-0-2 [C303]</t>
+          <t>3-0-2-0-2 [C204]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Post-Mid Only [C104]</t>
+          <t>Post-Mid Only [C304]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C203]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0/0 [C305]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -4907,27 +4907,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Statistics [C102]</t>
+          <t>Statistics [C203]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C203]</t>
+          <t>2-0-0-0-2 [C202]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pre-Mid Only [C205]</t>
+          <t>Pre-Mid Only [C203]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2/2 [C204]</t>
+          <t>2/2 [C203]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0/0 [C304]</t>
+          <t>0/0 [C203]</t>
         </is>
       </c>
     </row>
@@ -4939,12 +4939,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Probability [C101]</t>
+          <t>Probability [C102]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [C304]</t>
+          <t>2-0-0-0-2 [C203]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2/2 [C102]</t>
+          <t>2/2 [C101]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0/0 [C202]</t>
+          <t>0/0 [C205]</t>
         </is>
       </c>
     </row>
@@ -4995,27 +4995,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Course [L405]</t>
+          <t>Course [L206]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Course Code [L406]</t>
+          <t>Course Code [L106]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L403]</t>
+          <t>Lecture Slot - Classroom [L106]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [L406]</t>
+          <t>Tutorial Slot - Classroom [L206]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L407]</t>
+          <t>L-T-P-S-C [C308]</t>
         </is>
       </c>
     </row>
@@ -5027,27 +5027,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L406]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PH151 [L407]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L408]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L403]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5059,27 +5059,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L406]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PH151 [L407]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L408]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L403]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5091,27 +5091,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L406]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PH151 [L407]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L408]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L403]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5123,27 +5123,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L406]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PH151 [L407]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L408]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L403]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5155,27 +5155,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L406]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PH151 [L407]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L408]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L403]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5187,27 +5187,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L406]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PH151 [L407]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L408]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L403]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5219,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L406]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PH151 [L407]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L408]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L403]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5251,27 +5251,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L406]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PH151 [L407]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L408]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L403]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5283,27 +5283,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L406]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PH151 [L407]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L408]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L403]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5315,27 +5315,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics [L406]</t>
+          <t>Introduction to quantam Physics</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PH151 [L407]</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [L402]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [L408]</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2-0-0-0-2 [L403]</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
     </row>
@@ -5447,10 +5447,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>16.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5651,10 +5651,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5685,10 +5685,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5821,10 +5821,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5855,10 +5855,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -6025,10 +6025,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6195,10 +6195,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E25" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6289,10 +6289,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -6319,10 +6319,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6379,10 +6379,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6447,10 +6447,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6481,10 +6481,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6515,10 +6515,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6549,10 +6549,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6583,10 +6583,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>16.5</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6732,21 +6732,21 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6770,7 +6770,7 @@
         </is>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6812,11 +6812,7 @@
           <t>40</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
@@ -6828,7 +6824,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6876,7 +6872,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6884,11 +6880,7 @@
           <t>40</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
@@ -6900,7 +6892,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -6948,17 +6940,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -6972,7 +6964,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7020,21 +7012,21 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -7044,7 +7036,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -7058,7 +7050,7 @@
         </is>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -7102,7 +7094,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -7116,7 +7108,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7174,7 +7166,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -7188,7 +7180,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7246,7 +7238,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -7260,7 +7252,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7318,7 +7310,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -7332,7 +7324,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -7404,7 +7396,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -7452,21 +7444,21 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -7476,7 +7468,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -7490,7 +7482,7 @@
         </is>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -7524,21 +7516,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -7548,7 +7536,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C307</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -7562,7 +7550,7 @@
         </is>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -7601,12 +7589,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -7620,7 +7608,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -7668,17 +7656,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -7692,7 +7680,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -7740,21 +7728,21 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -7764,7 +7752,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -7778,7 +7766,7 @@
         </is>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -7836,7 +7824,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -7908,7 +7896,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7980,7 +7968,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -8038,7 +8026,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -8052,7 +8040,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -8124,7 +8112,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -8172,21 +8160,21 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -8196,7 +8184,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -8210,7 +8198,7 @@
         </is>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -8249,7 +8237,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -8268,7 +8256,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -8316,21 +8304,21 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -8340,7 +8328,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8354,7 +8342,7 @@
         </is>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -8484,7 +8472,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -8542,7 +8530,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8556,7 +8544,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -8628,7 +8616,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -8748,21 +8736,21 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -8772,7 +8760,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -8786,7 +8774,7 @@
         </is>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -8820,21 +8808,21 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -8844,7 +8832,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -8858,7 +8846,7 @@
         </is>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -8916,7 +8904,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -8974,7 +8962,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8988,7 +8976,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -9060,7 +9048,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -9132,7 +9120,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -9204,7 +9192,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -9252,21 +9240,21 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -9276,7 +9264,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -9290,7 +9278,7 @@
         </is>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -9324,21 +9312,21 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -9348,7 +9336,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -9362,7 +9350,7 @@
         </is>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -9406,7 +9394,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9420,7 +9408,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -9492,7 +9480,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -9550,7 +9538,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9564,7 +9552,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -9636,7 +9624,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -9694,7 +9682,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -9708,7 +9696,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -9756,21 +9744,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -9780,7 +9764,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C308</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -9794,7 +9778,7 @@
         </is>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -9838,7 +9822,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9856,7 +9840,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -9914,7 +9898,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9932,7 +9916,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -9990,7 +9974,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -10008,7 +9992,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -10160,7 +10144,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -10312,7 +10296,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -10370,7 +10354,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10388,7 +10372,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -10464,7 +10448,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -10522,7 +10506,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10540,7 +10524,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -10573,17 +10557,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10593,7 +10577,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -10602,7 +10586,7 @@
         </is>
       </c>
       <c r="J55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -10612,17 +10596,17 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Introduction to quantam Physics</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10641,17 +10625,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10666,7 +10650,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10677,18 +10661,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>EC161</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P56" t="b">
         <v>0</v>
       </c>
@@ -10709,17 +10701,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10729,7 +10721,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -10738,27 +10730,35 @@
         </is>
       </c>
       <c r="J57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>PH151</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J58" t="b">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10863,22 +10863,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10896,12 +10896,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10972,12 +10972,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -11015,22 +11015,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -11048,12 +11048,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -11091,7 +11091,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -11167,7 +11167,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11200,12 +11200,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11276,12 +11276,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11352,12 +11352,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -11390,27 +11390,27 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11421,26 +11421,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="b">
         <v>0</v>
       </c>
@@ -11466,27 +11458,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11497,26 +11489,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="b">
         <v>0</v>
       </c>
@@ -11542,7 +11526,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -11552,7 +11536,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -11562,7 +11546,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11576,7 +11560,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -11605,32 +11589,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -11644,12 +11628,12 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -11673,32 +11657,32 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -11712,12 +11696,12 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -11741,17 +11725,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11761,7 +11745,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -11770,27 +11754,35 @@
         </is>
       </c>
       <c r="J71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -11809,17 +11801,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11834,7 +11826,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11845,18 +11837,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11877,32 +11877,32 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -11913,18 +11913,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P73" t="b">
         <v>0</v>
       </c>
@@ -11945,7 +11953,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -11955,22 +11963,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -11981,18 +11989,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -12013,17 +12029,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -12033,7 +12049,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -12042,27 +12058,35 @@
         </is>
       </c>
       <c r="J75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -12091,7 +12115,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12106,7 +12130,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -12124,12 +12148,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -12167,7 +12191,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12200,12 +12224,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -12243,7 +12267,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12258,7 +12282,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -12276,12 +12300,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -12319,22 +12343,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12352,12 +12376,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -12395,7 +12419,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12433,7 +12457,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -12466,27 +12490,27 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12497,26 +12521,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
         <v>0</v>
       </c>
@@ -12542,27 +12558,27 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12573,26 +12589,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
         <v>0</v>
       </c>
@@ -12613,32 +12621,32 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12649,315 +12657,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
       <c r="P83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>1</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J86" t="b">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13010,7 +12722,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C204, C304, C305, L407</t>
+          <t>C101, C204, C205</t>
         </is>
       </c>
     </row>
@@ -13027,7 +12739,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C101, C104, C205</t>
+          <t>C102, C202, C205</t>
         </is>
       </c>
     </row>
@@ -13044,7 +12756,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, C204, C303</t>
+          <t>C104, C204, C302</t>
         </is>
       </c>
     </row>
@@ -13078,7 +12790,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104, C303, C305</t>
+          <t>C202, C305</t>
         </is>
       </c>
     </row>
@@ -13095,7 +12807,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102, C202, C203</t>
+          <t>C104, C202, C203</t>
         </is>
       </c>
     </row>
@@ -13112,7 +12824,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, C303, C305</t>
+          <t>C204, C302, C303</t>
         </is>
       </c>
     </row>
@@ -13129,7 +12841,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C101, C203, C304</t>
+          <t>C101, C205</t>
         </is>
       </c>
     </row>
@@ -13146,7 +12858,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C203, C205</t>
+          <t>C102, C203, C302</t>
         </is>
       </c>
     </row>
@@ -13163,7 +12875,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C202, C205, C304</t>
+          <t>C303, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_timetable.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Regular_Timetable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="PreMid_Timetable" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PostMid_Timetable" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Section_A" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Utilization" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classroom_Allocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Course_Allocations" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -205,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -233,11 +237,55 @@
         <color rgb="00CCCCCC"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -272,16 +320,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -341,6 +389,8 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1313,7 +1363,7 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
@@ -1399,7 +1449,7 @@
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1427,20 +1477,20 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E4" s="12" t="inlineStr">
+          <t>MA161 [C003]</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C102]</t>
+        </is>
+      </c>
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>EC161 [C004]</t>
         </is>
@@ -1458,27 +1508,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -1491,19 +1541,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>MA161 [C003]</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C303]</t>
-        </is>
-      </c>
-      <c r="D6" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C102]</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -1534,9 +1584,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L107]</t>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" s="8" t="inlineStr">
@@ -1557,29 +1607,29 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C303]</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
-        </is>
-      </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>MA162 [C004]</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C003]</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L107]</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="E8" s="14" t="inlineStr">
         <is>
           <t>EC161 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -1595,24 +1645,24 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L107]</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="E9" s="14" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -1674,10 +1724,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -1687,12 +1737,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -1931,11 +1981,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -1989,12 +2039,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2022,12 +2072,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2055,12 +2105,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2088,12 +2138,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2121,12 +2171,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2154,12 +2204,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2187,12 +2237,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2220,12 +2270,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2253,12 +2303,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C305]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2286,12 +2336,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C305]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -2411,9 +2461,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>MA162 [C004]</t>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C304]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -2439,19 +2489,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C303]</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>MA162 [C004]</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D4" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C303]</t>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -2472,27 +2522,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -2505,14 +2555,14 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C204]</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="inlineStr">
-        <is>
-          <t>EC161 [C004]</t>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -2520,7 +2570,7 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
+      <c r="E6" s="14" t="inlineStr">
         <is>
           <t>EC161 (Lab) [L206]</t>
         </is>
@@ -2538,22 +2588,22 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" s="12" t="inlineStr">
+      <c r="E7" s="14" t="inlineStr">
         <is>
           <t>EC161 (Lab) [L206]</t>
         </is>
@@ -2571,19 +2621,19 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
         <is>
           <t>EC161 [C004]</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2614,9 +2664,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L207]</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -2688,10 +2738,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -2701,12 +2751,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -2945,11 +2995,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -3003,12 +3053,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3036,12 +3086,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3069,12 +3119,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3102,12 +3152,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3135,12 +3185,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3168,12 +3218,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3201,12 +3251,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3234,12 +3284,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3267,12 +3317,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C305]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3300,12 +3350,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C305]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -3425,9 +3475,9 @@
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C304]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -3453,19 +3503,19 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C4" s="14" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
-        </is>
-      </c>
-      <c r="D4" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C303]</t>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>CS161 [C305]</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C004]</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>DS161 [C003]</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
@@ -3486,27 +3536,27 @@
           <t>12:00-13:00</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="15" t="inlineStr">
         <is>
           <t>LUNCH BREAK</t>
         </is>
@@ -3519,19 +3569,19 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
-        <is>
-          <t>CS161 [C303]</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>DS161 [C004]</t>
-        </is>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>DS161 [C004]</t>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>MA161 [C003]</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" s="8" t="inlineStr">
@@ -3552,9 +3602,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3585,9 +3635,9 @@
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>MA161 [C003]</t>
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -3595,9 +3645,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -3628,9 +3678,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
-        <is>
-          <t>CS161 (Lab) [L106]</t>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
@@ -3702,10 +3752,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="35" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="36" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -3715,12 +3765,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="35" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="36" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
@@ -3959,11 +4009,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="n"/>
-      <c r="C22" s="8" t="n"/>
-      <c r="D22" s="8" t="n"/>
-      <c r="E22" s="8" t="n"/>
-      <c r="F22" s="8" t="n"/>
+      <c r="B22" s="35" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="36" t="n"/>
       <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
@@ -4017,12 +4067,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C102]</t>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C104]</t>
+          <t>Fri 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4050,12 +4100,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C104]</t>
+          <t>Mon 09:00-10:30 [C001], Wed 09:00-10:30 [C001]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C202]</t>
+          <t>Fri 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4083,12 +4133,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C202]</t>
+          <t>Mon 09:00-10:30 [C002], Wed 09:00-10:30 [C002]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C203]</t>
+          <t>Fri 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4116,12 +4166,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30 [C004]</t>
+          <t>Mon 09:00-10:30 [C003], Wed 09:00-10:30 [C003]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C004]</t>
+          <t>Fri 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4149,12 +4199,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C203]</t>
+          <t>Mon 09:00-10:30 [C101], Wed 09:00-10:30 [C205]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C204]</t>
+          <t>Fri 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4182,12 +4232,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C204]</t>
+          <t>Mon 09:00-10:30 [C102], Wed 09:00-10:30 [C302]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C205]</t>
+          <t>Fri 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4215,12 +4265,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C205]</t>
+          <t>Mon 09:00-10:30 [C104], Wed 09:00-10:30 [C303]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C302]</t>
+          <t>Fri 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4248,12 +4298,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C205], Wed 09:00-10:30 [C302]</t>
+          <t>Mon 09:00-10:30 [C202], Wed 09:00-10:30 [C304]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C303]</t>
+          <t>Fri 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4281,12 +4331,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C302], Wed 09:00-10:30 [C303]</t>
+          <t>Mon 09:00-10:30 [C203], Wed 09:00-10:30 [C305]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C304]</t>
+          <t>Fri 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4314,12 +4364,12 @@
       </c>
       <c r="D33" s="8" t="inlineStr">
         <is>
-          <t>Mon 09:00-10:30 [C303], Wed 09:00-10:30 [C305]</t>
+          <t>Mon 09:00-10:30 [C204], Wed 09:00-10:30 [C101]</t>
         </is>
       </c>
       <c r="E33" s="8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30 [C305]</t>
+          <t>Fri 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -4337,4 +4387,8567 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS161 [C205]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS161 [C101]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS161 [C304]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DS161 [C305]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MA161 [C304]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS161 (Lab) [L206]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MA161 [C002]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Course Name [C202]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C102]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Term Type [C305]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lectures Hrs [C303]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs [C205]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Problem Solving [C104]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4 [C302]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Full Sem [C304]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3/3 [C303]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0/0 [C302]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance [C102]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C104]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only [C305]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2/2 [C302]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0/0 [C202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Digital Design [C101]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2 [C302]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Post-Mid Only [C205]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3/3 [C303]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0/0 [C204]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Statistics [C102]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C104]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only [C304]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2/2 [C104]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0/0 [C203]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Probability [C101]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2 [C102]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Post-Mid Only [C305]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2/2 [C304]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0/0 [C204]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Course [C203]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Course Code [C204]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom [C205]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom [C305]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Introduction to quantam Physics</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30 [C004], Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Post-Mid Only</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C101, C202, C205</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C102, C203, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C104, C204, C303</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C202, C205, C304</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C203, C302, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C101, C204, C303</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>